--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_6_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_6_9.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9792189317944637</v>
+        <v>0.989136812494922</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7231033856135165</v>
+        <v>0.7544140161948643</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8274241936261564</v>
+        <v>0.9999529015932509</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9460559889086846</v>
+        <v>0.9938758733409194</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9113419628883506</v>
+        <v>0.9967716112210543</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1389630987784417</v>
+        <v>0.07264218486683563</v>
       </c>
       <c r="H2" t="n">
-        <v>1.851608935394089</v>
+        <v>1.642234604524419</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4289547866449232</v>
+        <v>7.507699936783376e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2976093896246065</v>
+        <v>0.04259792775069537</v>
       </c>
       <c r="K2" t="n">
-        <v>0.363282115783665</v>
+        <v>0.02133649820371075</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7744508170052724</v>
+        <v>0.1507294663549048</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3727775459686939</v>
+        <v>0.2695221417005209</v>
       </c>
       <c r="N2" t="n">
-        <v>1.01216452773007</v>
+        <v>1.006358939027363</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3886474578564822</v>
+        <v>0.2809962572604599</v>
       </c>
       <c r="P2" t="n">
-        <v>133.9470937150213</v>
+        <v>135.2444189342577</v>
       </c>
       <c r="Q2" t="n">
-        <v>213.1740223314543</v>
+        <v>214.4713475506907</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9781581800664862</v>
+        <v>0.9905138910888925</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7230937546839487</v>
+        <v>0.7540287973507458</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8098979932546643</v>
+        <v>0.9973685824053453</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9410200954396767</v>
+        <v>0.991441349291819</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9026360428399344</v>
+        <v>0.995178828461076</v>
       </c>
       <c r="G3" t="n">
-        <v>0.14605635046774</v>
+        <v>0.06343365396809106</v>
       </c>
       <c r="H3" t="n">
-        <v>1.851673337464455</v>
+        <v>1.644810564708808</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4725179470844798</v>
+        <v>0.004194599153701528</v>
       </c>
       <c r="J3" t="n">
-        <v>0.325392440072764</v>
+        <v>0.05953188181860131</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3989551935786219</v>
+        <v>0.03186323733711686</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7169180239481299</v>
+        <v>0.2096744639329186</v>
       </c>
       <c r="M3" t="n">
-        <v>0.382173194334375</v>
+        <v>0.2518603858650484</v>
       </c>
       <c r="N3" t="n">
-        <v>1.012785455570837</v>
+        <v>1.005552844240648</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3984430984247639</v>
+        <v>0.2625826039141966</v>
       </c>
       <c r="P3" t="n">
-        <v>133.8475255392604</v>
+        <v>135.5155214773758</v>
       </c>
       <c r="Q3" t="n">
-        <v>213.0744541556934</v>
+        <v>214.7424500938089</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9770745867011645</v>
+        <v>0.9913543054765322</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7229959634299263</v>
+        <v>0.7532210604020644</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7933495630944097</v>
+        <v>0.9913261698689022</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9363030623117609</v>
+        <v>0.9887392802804571</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8944413344527913</v>
+        <v>0.9930282214964666</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1533023442911348</v>
+        <v>0.05781379908819188</v>
       </c>
       <c r="H4" t="n">
-        <v>1.85232726803039</v>
+        <v>1.650211905403928</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5136507598341601</v>
+        <v>0.01382647915753094</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3514163363614864</v>
+        <v>0.07832681323183653</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4325335480978233</v>
+        <v>0.04607664990270599</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6647836831278187</v>
+        <v>0.2636470377555927</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3915384327127222</v>
+        <v>0.2404450022108837</v>
       </c>
       <c r="N4" t="n">
-        <v>1.013419754126148</v>
+        <v>1.005060894355201</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4082070343895933</v>
+        <v>0.2506812437447723</v>
       </c>
       <c r="P4" t="n">
-        <v>133.7506864020833</v>
+        <v>135.7010555864946</v>
       </c>
       <c r="Q4" t="n">
-        <v>212.9776150185164</v>
+        <v>214.9279842029276</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9759952061069358</v>
+        <v>0.9917951998032696</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7228358608919797</v>
+        <v>0.7521358673184869</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7778283226586087</v>
+        <v>0.9830479883940341</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9319098703910288</v>
+        <v>0.9858985444473677</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8867761969227663</v>
+        <v>0.9905350181591903</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1605201672948329</v>
+        <v>0.0548655366951671</v>
       </c>
       <c r="H5" t="n">
-        <v>1.853397874438843</v>
+        <v>1.657468596550665</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5522303876481588</v>
+        <v>0.02702227638834862</v>
       </c>
       <c r="J5" t="n">
-        <v>0.375653599026652</v>
+        <v>0.09808627715430955</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4639419513334319</v>
+        <v>0.06255429004140481</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6175842976018362</v>
+        <v>0.30478384185045</v>
       </c>
       <c r="M5" t="n">
-        <v>0.400649681510959</v>
+        <v>0.2342339358316106</v>
       </c>
       <c r="N5" t="n">
-        <v>1.014051586669111</v>
+        <v>1.004802809871257</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4177061679120562</v>
+        <v>0.2442057594110537</v>
       </c>
       <c r="P5" t="n">
-        <v>133.6586713827569</v>
+        <v>135.8057397489653</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.8855999991899</v>
+        <v>215.0326683653983</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9749396104954835</v>
+        <v>0.9919423611885926</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7226333982262065</v>
+        <v>0.7508797417071162</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7633498459060211</v>
+        <v>0.9734113059126578</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9278379540450216</v>
+        <v>0.9830175340201477</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8796436094793558</v>
+        <v>0.9878567944879719</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1675789400091855</v>
+        <v>0.05388146783389661</v>
       </c>
       <c r="H6" t="n">
-        <v>1.854751743217124</v>
+        <v>1.665868314297827</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5882181198618849</v>
+        <v>0.04238358592089168</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3981183826758752</v>
+        <v>0.1181258813068042</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4931681956973924</v>
+        <v>0.08025473396648519</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5748815639408114</v>
+        <v>0.3358924590731217</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4093640678041803</v>
+        <v>0.2321238200484746</v>
       </c>
       <c r="N6" t="n">
-        <v>1.014669496295327</v>
+        <v>1.004716666621312</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4267915436710464</v>
+        <v>0.2420058116304877</v>
       </c>
       <c r="P6" t="n">
-        <v>133.5726015101987</v>
+        <v>135.8419373703253</v>
       </c>
       <c r="Q6" t="n">
-        <v>212.7995301266317</v>
+        <v>215.0688659867583</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9739215846374771</v>
+        <v>0.9918767048202356</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7224039090363723</v>
+        <v>0.7495300512224816</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7499060551439436</v>
+        <v>0.9630418965477379</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9240789099920008</v>
+        <v>0.9801680653871701</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8730354485766043</v>
+        <v>0.9851068031788889</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1743864836092518</v>
+        <v>0.05432051227141987</v>
       </c>
       <c r="H7" t="n">
-        <v>1.856286338486245</v>
+        <v>1.674893700783333</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6216340344052801</v>
+        <v>0.05891289538314946</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4188570482581906</v>
+        <v>0.1379460884502138</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5202455679514983</v>
+        <v>0.09842949191668163</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5362668023139547</v>
+        <v>0.3658599937987939</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4175960770999314</v>
+        <v>0.2330676130898926</v>
       </c>
       <c r="N7" t="n">
-        <v>1.015265413870745</v>
+        <v>1.004755099617423</v>
       </c>
       <c r="O7" t="n">
-        <v>0.435374006645126</v>
+        <v>0.2429897838955998</v>
       </c>
       <c r="P7" t="n">
-        <v>133.4929625455025</v>
+        <v>135.8257067303071</v>
       </c>
       <c r="Q7" t="n">
-        <v>212.7198911619355</v>
+        <v>215.0526353467402</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.972950370707084</v>
+        <v>0.9916601332811832</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7221590492231094</v>
+        <v>0.7481424567426236</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7374713496747822</v>
+        <v>0.9523838630736156</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9206202368904886</v>
+        <v>0.9774009427490228</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8669355768953861</v>
+        <v>0.9823653343776689</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1808809956338196</v>
+        <v>0.05576872715028348</v>
       </c>
       <c r="H8" t="n">
-        <v>1.85792371718501</v>
+        <v>1.684172551459428</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6525417644260335</v>
+        <v>0.07590228478355823</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4379385657395227</v>
+        <v>0.1571935169863848</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5452401918181553</v>
+        <v>0.1165479244097659</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5013786586068689</v>
+        <v>0.3911097506517617</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4253010646986669</v>
+        <v>0.2361540326784268</v>
       </c>
       <c r="N8" t="n">
-        <v>1.015833929342195</v>
+        <v>1.004881873201259</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4434070115174628</v>
+        <v>0.2462075987557873</v>
       </c>
       <c r="P8" t="n">
-        <v>133.4198318932778</v>
+        <v>135.773084024077</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.6467605097109</v>
+        <v>215.00001264051</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9720318241688323</v>
+        <v>0.9913396249703933</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7219076699980289</v>
+        <v>0.7467566815591551</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7260086282718243</v>
+        <v>0.9417493325671438</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9174466461827133</v>
+        <v>0.9747500214416203</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8613224252615703</v>
+        <v>0.9796878591802096</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1870233205646271</v>
+        <v>0.05791196770034057</v>
       </c>
       <c r="H9" t="n">
-        <v>1.859604691220618</v>
+        <v>1.69343923649219</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6810335288111556</v>
+        <v>0.09285420938612682</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4554472821725756</v>
+        <v>0.1756326774759984</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5682404484015395</v>
+        <v>0.1342434216539747</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4698613841039506</v>
+        <v>0.4119766246115889</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4324619296130321</v>
+        <v>0.240649055058067</v>
       </c>
       <c r="N9" t="n">
-        <v>1.016371615120684</v>
+        <v>1.005069487822209</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4508727292762665</v>
+        <v>0.2508939835441078</v>
       </c>
       <c r="P9" t="n">
-        <v>133.3530439220026</v>
+        <v>135.6976624394567</v>
       </c>
       <c r="Q9" t="n">
-        <v>212.5799725384357</v>
+        <v>214.9245910558897</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9711691526111302</v>
+        <v>0.9909507672199067</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7216563034937147</v>
+        <v>0.7454005884411117</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7154712126897694</v>
+        <v>0.931354495445932</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9145418886299637</v>
+        <v>0.9722368320272405</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8561709120419912</v>
+        <v>0.9771117572317598</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1927920092432176</v>
+        <v>0.06051226126836942</v>
       </c>
       <c r="H10" t="n">
-        <v>1.861285580192404</v>
+        <v>1.702507437416781</v>
       </c>
       <c r="I10" t="n">
-        <v>0.707225351105166</v>
+        <v>0.1094240518467346</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4714728446917939</v>
+        <v>0.1931138085918651</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5893491113368521</v>
+        <v>0.151268940685058</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4414061179687281</v>
+        <v>0.4292725267391169</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4390808686827719</v>
+        <v>0.2459924008345978</v>
       </c>
       <c r="N10" t="n">
-        <v>1.016876593593485</v>
+        <v>1.005297111871274</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4577734502852979</v>
+        <v>0.2564648066125961</v>
       </c>
       <c r="P10" t="n">
-        <v>133.292286686997</v>
+        <v>135.6098185377727</v>
       </c>
       <c r="Q10" t="n">
-        <v>212.5192153034301</v>
+        <v>214.8367471542057</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.970363595170208</v>
+        <v>0.9905203706656527</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7214097091894291</v>
+        <v>0.7440931507732362</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7058083866068996</v>
+        <v>0.9213448468158296</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9118882666001386</v>
+        <v>0.9698737373606446</v>
       </c>
       <c r="F11" t="n">
-        <v>0.85145372566834</v>
+        <v>0.974661101217239</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1981787755599159</v>
+        <v>0.0633903250084597</v>
       </c>
       <c r="H11" t="n">
-        <v>1.862934557440624</v>
+        <v>1.711250279122061</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7312432919038054</v>
+        <v>0.1253798863588872</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4861128912254825</v>
+        <v>0.2095509173388645</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6086780915646439</v>
+        <v>0.167465384555988</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4157227125453059</v>
+        <v>0.4436577601685193</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4451727479978035</v>
+        <v>0.2517743533572467</v>
       </c>
       <c r="N11" t="n">
-        <v>1.017348139412561</v>
+        <v>1.005549051317667</v>
       </c>
       <c r="O11" t="n">
-        <v>0.464124673514699</v>
+        <v>0.2624929088244259</v>
       </c>
       <c r="P11" t="n">
-        <v>133.2371714975891</v>
+        <v>135.5168880631482</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.4641001140221</v>
+        <v>214.7438166795813</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9696150661027018</v>
+        <v>0.9900684552457923</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7211712738809142</v>
+        <v>0.7428468965784405</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6969667310035861</v>
+        <v>0.9118155899430515</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9094686937465234</v>
+        <v>0.9676659622313661</v>
       </c>
       <c r="F12" t="n">
-        <v>0.847143155469422</v>
+        <v>0.9723501098675998</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2031841928809895</v>
+        <v>0.06641228550194507</v>
       </c>
       <c r="H12" t="n">
-        <v>1.864528975446557</v>
+        <v>1.719583986661133</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7532201296344163</v>
+        <v>0.1405699545925095</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4994616872372905</v>
+        <v>0.2249076613584121</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6263409353756892</v>
+        <v>0.1827387813358108</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3925486015972162</v>
+        <v>0.4556579104849868</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4507595732549555</v>
+        <v>0.2577058119289223</v>
       </c>
       <c r="N12" t="n">
-        <v>1.01778630276915</v>
+        <v>1.005813587173195</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4699493414893705</v>
+        <v>0.2686768818673097</v>
       </c>
       <c r="P12" t="n">
-        <v>133.1872847144874</v>
+        <v>135.4237464339893</v>
       </c>
       <c r="Q12" t="n">
-        <v>212.4142133309204</v>
+        <v>214.6506750504224</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9689223698501891</v>
+        <v>0.9896097996663163</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7209433485285388</v>
+        <v>0.7416694956369795</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6888921331448907</v>
+        <v>0.9028226310114305</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9072657766986514</v>
+        <v>0.9656142166762249</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8432111157786915</v>
+        <v>0.9701858909497456</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2078162559111141</v>
+        <v>0.06947931747381601</v>
       </c>
       <c r="H13" t="n">
-        <v>1.866053113327391</v>
+        <v>1.727457272178116</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7732903670245695</v>
+        <v>0.1549051395515506</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5116151920425049</v>
+        <v>0.2391791018079854</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6424527256287834</v>
+        <v>0.1970421556240565</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3716453998871731</v>
+        <v>0.4656989454733957</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4558686827487868</v>
+        <v>0.2635892969636969</v>
       </c>
       <c r="N13" t="n">
-        <v>1.018191783502328</v>
+        <v>1.00608206848801</v>
       </c>
       <c r="O13" t="n">
-        <v>0.475275956351669</v>
+        <v>0.2748108390405077</v>
       </c>
       <c r="P13" t="n">
-        <v>133.1422019494761</v>
+        <v>135.3334523220099</v>
       </c>
       <c r="Q13" t="n">
-        <v>212.3691305659091</v>
+        <v>214.560380938443</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9682834753018402</v>
+        <v>0.9891552775662592</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7207274121038848</v>
+        <v>0.7405650476275973</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6815282998467455</v>
+        <v>0.8943951215372646</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9052630078050981</v>
+        <v>0.9637159466512579</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8396293572272397</v>
+        <v>0.9681706413428509</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2120885466977622</v>
+        <v>0.07251870884977983</v>
       </c>
       <c r="H14" t="n">
-        <v>1.867497081193348</v>
+        <v>1.73484272110237</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7915939265307731</v>
+        <v>0.1683389723950927</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5226644784398509</v>
+        <v>0.252383003992954</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6571292159638784</v>
+        <v>0.2103609881940234</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3527900369107403</v>
+        <v>0.4741297888570604</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4605307228597916</v>
+        <v>0.2692929795775966</v>
       </c>
       <c r="N14" t="n">
-        <v>1.01856577055502</v>
+        <v>1.006348130205116</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4801364691619527</v>
+        <v>0.2807573392315317</v>
       </c>
       <c r="P14" t="n">
-        <v>133.1015028368172</v>
+        <v>135.2478213946222</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3284314532503</v>
+        <v>214.4747500110552</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9676960169957046</v>
+        <v>0.9887125615646258</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7205242527093977</v>
+        <v>0.7395349978036392</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6748241498168366</v>
+        <v>0.886543791989063</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9034440821605574</v>
+        <v>0.9619658092642155</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8363714661025589</v>
+        <v>0.9663028246837597</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2160168830958875</v>
+        <v>0.07547915279122198</v>
       </c>
       <c r="H15" t="n">
-        <v>1.868855608999746</v>
+        <v>1.741730669018121</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8082577759204461</v>
+        <v>0.1808543482690007</v>
       </c>
       <c r="J15" t="n">
-        <v>0.532699500676665</v>
+        <v>0.2645565317655189</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6704786382985555</v>
+        <v>0.2227054329063401</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3357953466051665</v>
+        <v>0.4812322362412879</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4647761645092048</v>
+        <v>0.2747346952811421</v>
       </c>
       <c r="N15" t="n">
-        <v>1.01890964858788</v>
+        <v>1.006607281035341</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4845626480516572</v>
+        <v>0.2864307200384816</v>
       </c>
       <c r="P15" t="n">
-        <v>133.0647974237431</v>
+        <v>135.1677975656528</v>
       </c>
       <c r="Q15" t="n">
-        <v>212.2917260401761</v>
+        <v>214.3947261820859</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.967157177695576</v>
+        <v>0.9882869898217389</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7203343257379491</v>
+        <v>0.7385789607455341</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6687278434837884</v>
+        <v>0.8792627521277944</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9017935598930636</v>
+        <v>0.9603572883737785</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8334112955402286</v>
+        <v>0.9645783036919002</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2196201039769749</v>
+        <v>0.07832495299548478</v>
       </c>
       <c r="H16" t="n">
-        <v>1.870125651532356</v>
+        <v>1.748123693227816</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8234107677410373</v>
+        <v>0.1924606564817995</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5418054406068474</v>
+        <v>0.2757450098115632</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6826081311228732</v>
+        <v>0.2341028331466814</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3204738746788423</v>
+        <v>0.4872347201617215</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4686364304842027</v>
+        <v>0.2798659554063066</v>
       </c>
       <c r="N16" t="n">
-        <v>1.019225066714785</v>
+        <v>1.006856396201909</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4885872535410628</v>
+        <v>0.2917804285303471</v>
       </c>
       <c r="P16" t="n">
-        <v>133.0317120507446</v>
+        <v>135.0937780845311</v>
       </c>
       <c r="Q16" t="n">
-        <v>212.2586406671776</v>
+        <v>214.3207067009641</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9666640569918307</v>
+        <v>0.9878820487081006</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7201576283068947</v>
+        <v>0.7376951665421239</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6631898312460867</v>
+        <v>0.8725371355161551</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9002977900860047</v>
+        <v>0.9588824595486298</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8307246429512842</v>
+        <v>0.9629911186733631</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2229176043935318</v>
+        <v>0.08103279608696619</v>
       </c>
       <c r="H17" t="n">
-        <v>1.871307228067434</v>
+        <v>1.754033629135518</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8371760625860996</v>
+        <v>0.2031815948097219</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5500576104083139</v>
+        <v>0.2860035585378818</v>
       </c>
       <c r="K17" t="n">
-        <v>0.693616866130826</v>
+        <v>0.2445925766738019</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3066633740494934</v>
+        <v>0.4923218290477984</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4721415088652254</v>
+        <v>0.2846626004359656</v>
       </c>
       <c r="N17" t="n">
-        <v>1.019513722736489</v>
+        <v>1.007093434902575</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4922415503652783</v>
+        <v>0.2967812766693428</v>
       </c>
       <c r="P17" t="n">
-        <v>133.0019061256474</v>
+        <v>135.025802632586</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.2288347420804</v>
+        <v>214.252731249019</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9662135574593151</v>
+        <v>0.9874999324069765</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7199939444436236</v>
+        <v>0.7368808598261621</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6581635049293106</v>
+        <v>0.8663449252103301</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8989428383490392</v>
+        <v>0.9575334393573685</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8282880004590139</v>
+        <v>0.9615344648824986</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2259300968418227</v>
+        <v>0.08358800955206652</v>
       </c>
       <c r="H18" t="n">
-        <v>1.872401782814823</v>
+        <v>1.759478901894692</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8496695098318268</v>
+        <v>0.2130522592611249</v>
       </c>
       <c r="J18" t="n">
-        <v>0.557532886185017</v>
+        <v>0.2953870131658779</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7036011683874352</v>
+        <v>0.2542196362135014</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2942209847280333</v>
+        <v>0.4966529675531766</v>
       </c>
       <c r="M18" t="n">
-        <v>0.47532104607499</v>
+        <v>0.2891159102368227</v>
       </c>
       <c r="N18" t="n">
-        <v>1.019777429779913</v>
+        <v>1.00731711273738</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4955564470566118</v>
+        <v>0.3014241730880445</v>
       </c>
       <c r="P18" t="n">
-        <v>132.9750592671289</v>
+        <v>134.9637103911774</v>
       </c>
       <c r="Q18" t="n">
-        <v>212.2019878835619</v>
+        <v>214.1906390076105</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.96580278915775</v>
+        <v>0.9871417469536199</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7198428306779194</v>
+        <v>0.7361328280094093</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6536066852812934</v>
+        <v>0.8606597159533143</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8977166442379025</v>
+        <v>0.9563018204369867</v>
       </c>
       <c r="F19" t="n">
-        <v>0.826080419038874</v>
+        <v>0.9602007293400787</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2286769063658031</v>
+        <v>0.08598319732795512</v>
       </c>
       <c r="H19" t="n">
-        <v>1.873412281261902</v>
+        <v>1.764480994097688</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8609959503159597</v>
+        <v>0.2221147410148901</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5642978054706616</v>
+        <v>0.3039538532571124</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7126468778933106</v>
+        <v>0.2630343261265173</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2830079704675474</v>
+        <v>0.5003439616110967</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4782017423282804</v>
+        <v>0.293228916254784</v>
       </c>
       <c r="N19" t="n">
-        <v>1.020017879517415</v>
+        <v>1.007526782271052</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4985597805132682</v>
+        <v>0.3057122782872866</v>
       </c>
       <c r="P19" t="n">
-        <v>132.9508903218032</v>
+        <v>134.9072067634505</v>
       </c>
       <c r="Q19" t="n">
-        <v>212.1778189382362</v>
+        <v>214.1341353798836</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.965428725714895</v>
+        <v>0.9868078561220246</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7197037884970005</v>
+        <v>0.7354472496730562</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6494785503898539</v>
+        <v>0.8554527979697124</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8966071952340606</v>
+        <v>0.9551793402641393</v>
       </c>
       <c r="F20" t="n">
-        <v>0.824081465904511</v>
+        <v>0.9589821106616846</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2311782703305778</v>
+        <v>0.08821592685625887</v>
       </c>
       <c r="H20" t="n">
-        <v>1.874342056965937</v>
+        <v>1.769065459589679</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8712568510691219</v>
+        <v>0.230414804756873</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5704186413924491</v>
+        <v>0.3117615509038684</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7208377193292568</v>
+        <v>0.2710882059479729</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2729021713418346</v>
+        <v>0.5035048552109287</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4808100147985457</v>
+        <v>0.2970116611452467</v>
       </c>
       <c r="N20" t="n">
-        <v>1.020236843483964</v>
+        <v>1.007722230562717</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5012790925424611</v>
+        <v>0.3096560624590978</v>
       </c>
       <c r="P20" t="n">
-        <v>132.9291322661207</v>
+        <v>134.8559355113396</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.1560608825538</v>
+        <v>214.0828641277727</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9650886094937298</v>
+        <v>0.986497983182697</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7195761764123256</v>
+        <v>0.7348203296021473</v>
       </c>
       <c r="D21" t="n">
-        <v>0.645741835785401</v>
+        <v>0.8506942094600434</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8956043351963985</v>
+        <v>0.9541572726051517</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8222729876883019</v>
+        <v>0.9578704031532377</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2334526290676011</v>
+        <v>0.09028804862837601</v>
       </c>
       <c r="H21" t="n">
-        <v>1.875195399563757</v>
+        <v>1.773257676990549</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8805448367351647</v>
+        <v>0.2380002109561847</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5759514254337086</v>
+        <v>0.3188708036541069</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7282480773084864</v>
+        <v>0.2784355073051458</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2638034362808432</v>
+        <v>0.506215355784923</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4831693585768877</v>
+        <v>0.3004796975310911</v>
       </c>
       <c r="N21" t="n">
-        <v>1.020435935906109</v>
+        <v>1.007903619600373</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5037388784699619</v>
+        <v>0.3132717403337126</v>
       </c>
       <c r="P21" t="n">
-        <v>132.9095521916539</v>
+        <v>134.8095003583274</v>
       </c>
       <c r="Q21" t="n">
-        <v>212.1364808080869</v>
+        <v>214.0364289747604</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9647795750958984</v>
+        <v>0.9862116009700724</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7194593047018727</v>
+        <v>0.73424807206772</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6423598086304692</v>
+        <v>0.8463525059040036</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8946980276673726</v>
+        <v>0.9532284660885674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8206370807373793</v>
+        <v>0.9568580456609493</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2355191435088717</v>
+        <v>0.09220308780286537</v>
       </c>
       <c r="H22" t="n">
-        <v>1.8759769212297</v>
+        <v>1.777084365758268</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8889512105320134</v>
+        <v>0.2449210836062655</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5809515287828825</v>
+        <v>0.3253313546992374</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7349513132216382</v>
+        <v>0.2851262020432112</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2556063080580766</v>
+        <v>0.5085531479481703</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4853031459911132</v>
+        <v>0.3036496135397926</v>
       </c>
       <c r="N22" t="n">
-        <v>1.020616834090206</v>
+        <v>1.008071257968738</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5059635056319599</v>
+        <v>0.3165766062295352</v>
       </c>
       <c r="P22" t="n">
-        <v>132.8919261600888</v>
+        <v>134.7675233174214</v>
       </c>
       <c r="Q22" t="n">
-        <v>212.1188547765219</v>
+        <v>213.9944519338544</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9644992679446551</v>
+        <v>0.9859477116795062</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7193524659210327</v>
+        <v>0.7337265450245716</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6393028736137567</v>
+        <v>0.8423974112836867</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8938797859098428</v>
+        <v>0.9523848659190572</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8191590436194881</v>
+        <v>0.9559371400042026</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2373935587199318</v>
+        <v>0.09396771670397962</v>
       </c>
       <c r="H23" t="n">
-        <v>1.876691352649125</v>
+        <v>1.780571819497212</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8965495346275748</v>
+        <v>0.2512256840546665</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5854657728128929</v>
+        <v>0.3311992312262497</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7410076671505902</v>
+        <v>0.2912124894256685</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2482222432794624</v>
+        <v>0.5105628118708091</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4872304985527197</v>
+        <v>0.3065415415632596</v>
       </c>
       <c r="N23" t="n">
-        <v>1.02078091632508</v>
+        <v>1.008225729748582</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5079729095822838</v>
+        <v>0.3195916496160776</v>
       </c>
       <c r="P23" t="n">
-        <v>132.8760718595563</v>
+        <v>134.7296079900406</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.1030004759893</v>
+        <v>213.9565366064736</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9642450269472876</v>
+        <v>0.9857052890014685</v>
       </c>
       <c r="C24" t="n">
-        <v>0.719255033655118</v>
+        <v>0.7332519322371728</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6365387936735323</v>
+        <v>0.8387989200627072</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8931407450267067</v>
+        <v>0.9516197395750555</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8178231623402854</v>
+        <v>0.955100546033384</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2390936694400004</v>
+        <v>0.09558879826827217</v>
       </c>
       <c r="H24" t="n">
-        <v>1.877342882659931</v>
+        <v>1.783745557391939</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9034199375301696</v>
+        <v>0.2569618424891106</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5895430652071401</v>
+        <v>0.3365212630091183</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7464815282167152</v>
+        <v>0.2967415588710886</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2415736304146265</v>
+        <v>0.5123088303641729</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4889720538435713</v>
+        <v>0.3091743816493731</v>
       </c>
       <c r="N24" t="n">
-        <v>1.020929740323539</v>
+        <v>1.008367635706457</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5097886064873834</v>
+        <v>0.3223365751553871</v>
       </c>
       <c r="P24" t="n">
-        <v>132.8617997629781</v>
+        <v>134.6953992774322</v>
       </c>
       <c r="Q24" t="n">
-        <v>212.0887283794111</v>
+        <v>213.9223278938652</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.964014745474937</v>
+        <v>0.9854831221327112</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7191662550960116</v>
+        <v>0.7328205440354502</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6340427976297436</v>
+        <v>0.8355298166233163</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8924735162703032</v>
+        <v>0.9509261769310252</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8166169594039587</v>
+        <v>0.9543413345711159</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2406335627059576</v>
+        <v>0.09707442914263689</v>
       </c>
       <c r="H25" t="n">
-        <v>1.877936545293463</v>
+        <v>1.786630252283218</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9096239905369424</v>
+        <v>0.262172941840307</v>
       </c>
       <c r="J25" t="n">
-        <v>0.593224169724879</v>
+        <v>0.341345515191619</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7514240237766092</v>
+        <v>0.3017592054775207</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2355841621223658</v>
+        <v>0.51382287228761</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4905441495991544</v>
+        <v>0.3115676959227912</v>
       </c>
       <c r="N25" t="n">
-        <v>1.021064539234183</v>
+        <v>1.008497684605242</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5114276296139686</v>
+        <v>0.3248317777722683</v>
       </c>
       <c r="P25" t="n">
-        <v>132.8489599786034</v>
+        <v>134.6645545679246</v>
       </c>
       <c r="Q25" t="n">
-        <v>212.0758885950365</v>
+        <v>213.8914831843577</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9638062691488701</v>
+        <v>0.9852799585290843</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7190855197113255</v>
+        <v>0.7324289059535074</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6317878592146549</v>
+        <v>0.8325625779753041</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8918718651730972</v>
+        <v>0.9502981239877493</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8155279764204904</v>
+        <v>0.9536529813160883</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2420276448583118</v>
+        <v>0.0984329850955714</v>
       </c>
       <c r="H26" t="n">
-        <v>1.878476423182612</v>
+        <v>1.789249137940496</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9152288701957196</v>
+        <v>0.2669028550046275</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5965434819559136</v>
+        <v>0.3457140979121628</v>
       </c>
       <c r="K26" t="n">
-        <v>0.7558862028996209</v>
+        <v>0.3063085485074548</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2301933739463548</v>
+        <v>0.5151385550615285</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4919630523304691</v>
+        <v>0.3137403147438521</v>
       </c>
       <c r="N26" t="n">
-        <v>1.021186574156759</v>
+        <v>1.008616609641512</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5129069379720889</v>
+        <v>0.3270968894744827</v>
       </c>
       <c r="P26" t="n">
-        <v>132.8374066487961</v>
+        <v>134.6367586334197</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.0643352652292</v>
+        <v>213.8636872498527</v>
       </c>
     </row>
   </sheetData>
